--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H2">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I2">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J2">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N2">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q2">
-        <v>72.92532140560448</v>
+        <v>11.151630656664</v>
       </c>
       <c r="R2">
-        <v>72.92532140560448</v>
+        <v>100.364675909976</v>
       </c>
       <c r="S2">
-        <v>0.06676437548812378</v>
+        <v>0.00753549106485667</v>
       </c>
       <c r="T2">
-        <v>0.06676437548812378</v>
+        <v>0.00753549106485667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H3">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I3">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J3">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P3">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q3">
-        <v>21.09527608366449</v>
+        <v>79.858469514768</v>
       </c>
       <c r="R3">
-        <v>21.09527608366449</v>
+        <v>718.726225632912</v>
       </c>
       <c r="S3">
-        <v>0.01931308503451002</v>
+        <v>0.05396276132244885</v>
       </c>
       <c r="T3">
-        <v>0.01931308503451002</v>
+        <v>0.05396276132244886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.5227974697794</v>
+        <v>36.183528</v>
       </c>
       <c r="H4">
-        <v>60.5227974697794</v>
+        <v>108.550584</v>
       </c>
       <c r="I4">
-        <v>0.1525395709959127</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J4">
-        <v>0.1525395709959127</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N4">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q4">
-        <v>129.2324050269227</v>
+        <v>30.05910405072</v>
       </c>
       <c r="R4">
-        <v>129.2324050269227</v>
+        <v>270.53193645648</v>
       </c>
       <c r="S4">
-        <v>0.1183144708607026</v>
+        <v>0.0203118375209494</v>
       </c>
       <c r="T4">
-        <v>0.1183144708607026</v>
+        <v>0.02031183752094941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H5">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I5">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J5">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.617673962874414</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N5">
-        <v>0.617673962874414</v>
+        <v>0.924589</v>
       </c>
       <c r="O5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q5">
-        <v>37.3833561574042</v>
+        <v>19.17987084526067</v>
       </c>
       <c r="R5">
-        <v>37.3833561574042</v>
+        <v>172.618837607346</v>
       </c>
       <c r="S5">
-        <v>0.03422510013521016</v>
+        <v>0.01296041357800875</v>
       </c>
       <c r="T5">
-        <v>0.03422510013521016</v>
+        <v>0.01296041357800875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>202.023925247045</v>
+        <v>62.232638</v>
       </c>
       <c r="H6">
-        <v>202.023925247045</v>
+        <v>186.697914</v>
       </c>
       <c r="I6">
-        <v>0.5091741323338885</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J6">
-        <v>0.5091741323338885</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1352682035468</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N6">
-        <v>2.1352682035468</v>
+        <v>6.621118</v>
       </c>
       <c r="O6">
-        <v>0.7756313334844294</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P6">
-        <v>0.7756313334844294</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q6">
-        <v>431.3752639357308</v>
+        <v>137.3498798830947</v>
       </c>
       <c r="R6">
-        <v>431.3752639357308</v>
+        <v>1236.148918947852</v>
       </c>
       <c r="S6">
-        <v>0.3949314112379113</v>
+        <v>0.09281143040723835</v>
       </c>
       <c r="T6">
-        <v>0.3949314112379113</v>
+        <v>0.09281143040723837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>202.023925247045</v>
+        <v>62.232638</v>
       </c>
       <c r="H7">
-        <v>202.023925247045</v>
+        <v>186.697914</v>
       </c>
       <c r="I7">
-        <v>0.5091741323338885</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J7">
-        <v>0.5091741323338885</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.617673962874414</v>
+        <v>0.83074</v>
       </c>
       <c r="N7">
-        <v>0.617673962874414</v>
+        <v>2.49222</v>
       </c>
       <c r="O7">
-        <v>0.2243686665155707</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P7">
-        <v>0.2243686665155707</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q7">
-        <v>124.7849185027867</v>
+        <v>51.69914169212</v>
       </c>
       <c r="R7">
-        <v>124.7849185027867</v>
+        <v>465.29227522908</v>
       </c>
       <c r="S7">
-        <v>0.1142427210959773</v>
+        <v>0.03493465953778917</v>
       </c>
       <c r="T7">
-        <v>0.1142427210959773</v>
+        <v>0.03493465953778918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.9606616478186</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H8">
-        <v>94.9606616478186</v>
+        <v>609.375824</v>
       </c>
       <c r="I8">
-        <v>0.2393355759287091</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J8">
-        <v>0.2393355759287091</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N8">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O8">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P8">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q8">
-        <v>202.7664814043531</v>
+        <v>62.60246485959289</v>
       </c>
       <c r="R8">
-        <v>202.7664814043531</v>
+        <v>563.4221837363359</v>
       </c>
       <c r="S8">
-        <v>0.1856361719078485</v>
+        <v>0.04230236179007264</v>
       </c>
       <c r="T8">
-        <v>0.1856361719078485</v>
+        <v>0.04230236179007264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.9606616478186</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H9">
-        <v>94.9606616478186</v>
+        <v>609.375824</v>
       </c>
       <c r="I9">
-        <v>0.2393355759287091</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J9">
-        <v>0.2393355759287091</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N9">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O9">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P9">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q9">
-        <v>58.6547281971845</v>
+        <v>448.3054707834702</v>
       </c>
       <c r="R9">
-        <v>58.6547281971845</v>
+        <v>4034.749237051232</v>
       </c>
       <c r="S9">
-        <v>0.05369940402086058</v>
+        <v>0.3029334429576408</v>
       </c>
       <c r="T9">
-        <v>0.05369940402086058</v>
+        <v>0.3029334429576408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.10769576651335</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H10">
-        <v>5.10769576651335</v>
+        <v>609.375824</v>
       </c>
       <c r="I10">
-        <v>0.01287326021885594</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J10">
-        <v>0.01287326021885594</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N10">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O10">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P10">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q10">
-        <v>10.90630036362656</v>
+        <v>168.7442906765867</v>
       </c>
       <c r="R10">
-        <v>10.90630036362656</v>
+        <v>1518.69861608928</v>
       </c>
       <c r="S10">
-        <v>0.009984903989843289</v>
+        <v>0.1140255747153112</v>
       </c>
       <c r="T10">
-        <v>0.009984903989843289</v>
+        <v>0.1140255747153112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>135.170856</v>
+      </c>
+      <c r="H11">
+        <v>405.512568</v>
+      </c>
+      <c r="I11">
+        <v>0.3056180669374137</v>
+      </c>
+      <c r="J11">
+        <v>0.3056180669374137</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.924589</v>
+      </c>
+      <c r="O11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q11">
+        <v>41.659162192728</v>
+      </c>
+      <c r="R11">
+        <v>374.932459734552</v>
+      </c>
+      <c r="S11">
+        <v>0.02815034447765922</v>
+      </c>
+      <c r="T11">
+        <v>0.02815034447765922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>135.170856</v>
+      </c>
+      <c r="H12">
+        <v>405.512568</v>
+      </c>
+      <c r="I12">
+        <v>0.3056180669374137</v>
+      </c>
+      <c r="J12">
+        <v>0.3056180669374137</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.621118</v>
+      </c>
+      <c r="O12">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P12">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q12">
+        <v>298.327395912336</v>
+      </c>
+      <c r="R12">
+        <v>2684.946563211024</v>
+      </c>
+      <c r="S12">
+        <v>0.2015887627121132</v>
+      </c>
+      <c r="T12">
+        <v>0.2015887627121132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5.10769576651335</v>
-      </c>
-      <c r="H11">
-        <v>5.10769576651335</v>
-      </c>
-      <c r="I11">
-        <v>0.01287326021885594</v>
-      </c>
-      <c r="J11">
-        <v>0.01287326021885594</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="N11">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="O11">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="P11">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="Q11">
-        <v>3.154890685259168</v>
-      </c>
-      <c r="R11">
-        <v>3.154890685259168</v>
-      </c>
-      <c r="S11">
-        <v>0.002888356229012651</v>
-      </c>
-      <c r="T11">
-        <v>0.002888356229012651</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>135.170856</v>
+      </c>
+      <c r="H13">
+        <v>405.512568</v>
+      </c>
+      <c r="I13">
+        <v>0.3056180669374137</v>
+      </c>
+      <c r="J13">
+        <v>0.3056180669374137</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.83074</v>
+      </c>
+      <c r="N13">
+        <v>2.49222</v>
+      </c>
+      <c r="O13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q13">
+        <v>112.29183691344</v>
+      </c>
+      <c r="R13">
+        <v>1010.62653222096</v>
+      </c>
+      <c r="S13">
+        <v>0.07587895974764122</v>
+      </c>
+      <c r="T13">
+        <v>0.07587895974764124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.574566</v>
+      </c>
+      <c r="H14">
+        <v>16.723698</v>
+      </c>
+      <c r="I14">
+        <v>0.01260396016827052</v>
+      </c>
+      <c r="J14">
+        <v>0.01260396016827052</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.924589</v>
+      </c>
+      <c r="O14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q14">
+        <v>1.718060801124667</v>
+      </c>
+      <c r="R14">
+        <v>15.462547210122</v>
+      </c>
+      <c r="S14">
+        <v>0.001160945176032967</v>
+      </c>
+      <c r="T14">
+        <v>0.001160945176032967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.574566</v>
+      </c>
+      <c r="H15">
+        <v>16.723698</v>
+      </c>
+      <c r="I15">
+        <v>0.01260396016827052</v>
+      </c>
+      <c r="J15">
+        <v>0.01260396016827052</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.621118</v>
+      </c>
+      <c r="O15">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P15">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q15">
+        <v>12.30328642826267</v>
+      </c>
+      <c r="R15">
+        <v>110.729577854364</v>
+      </c>
+      <c r="S15">
+        <v>0.008313699386478798</v>
+      </c>
+      <c r="T15">
+        <v>0.008313699386478798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.574566</v>
+      </c>
+      <c r="H16">
+        <v>16.723698</v>
+      </c>
+      <c r="I16">
+        <v>0.01260396016827052</v>
+      </c>
+      <c r="J16">
+        <v>0.01260396016827052</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.83074</v>
+      </c>
+      <c r="N16">
+        <v>2.49222</v>
+      </c>
+      <c r="O16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q16">
+        <v>4.63101495884</v>
+      </c>
+      <c r="R16">
+        <v>41.67913462956</v>
+      </c>
+      <c r="S16">
+        <v>0.003129315605758754</v>
+      </c>
+      <c r="T16">
+        <v>0.003129315605758754</v>
       </c>
     </row>
   </sheetData>
